--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -2244,8 +2244,8 @@
   <dimension ref="A1:I649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,6 +2258,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
